--- a/spec/ASW/Eng/ETS/EngDem/EngPrt/EngPrt_PrtLimOvht/EngPrt_PrtLimOvht.xlsx
+++ b/spec/ASW/Eng/ETS/EngDem/EngPrt/EngPrt_PrtLimOvht/EngPrt_PrtLimOvht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\ETS\EngDem\EngPrt\EngPrt_PrtLimOvht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4000A-A255-4D78-94B7-B477CEDCA785}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,561 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>AFS_mAirPerCyl</t>
+  </si>
+  <si>
+    <t>mg/hub</t>
+  </si>
+  <si>
+    <t>Air mass per cylinder</t>
+  </si>
+  <si>
+    <t>InjCtl_qSetUnBal</t>
+  </si>
+  <si>
+    <t>Current injection quantity</t>
+  </si>
+  <si>
+    <t>Oil_tSwmp</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Oil temperature in oil sump</t>
+  </si>
+  <si>
+    <t>CEngDsT_t</t>
+  </si>
+  <si>
+    <t>engine coolant temperature after filter</t>
+  </si>
+  <si>
+    <t>FuelT_t</t>
+  </si>
+  <si>
+    <t>Temperature of fuel</t>
+  </si>
+  <si>
+    <t>VehV_v</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>Vehicle speed</t>
+  </si>
+  <si>
+    <t>CnvSet_etaCurr</t>
+  </si>
+  <si>
+    <t>Nm/(mg/hub)</t>
+  </si>
+  <si>
+    <t>Current conversion efficiency</t>
+  </si>
+  <si>
+    <t>DSM_bEngPrtOvhtPrv</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Status of FId_EngPrtOvhtPrv</t>
+  </si>
+  <si>
+    <t>Air_tCACDs_mp</t>
+  </si>
+  <si>
+    <t>Charge-air temperature downstream from charge-air cooler</t>
+  </si>
+  <si>
+    <t>Air_tAFS_mp</t>
+  </si>
+  <si>
+    <t>Induction air temperature at the HFM</t>
+  </si>
+  <si>
+    <t>EnvT_t</t>
+  </si>
+  <si>
+    <t>Environmental temperature</t>
+  </si>
+  <si>
+    <t>Air_tIntkVUs</t>
+  </si>
+  <si>
+    <t>Intake air temperature upstream of the inlet valve</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimOvhtPrv</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Torque limitation value for engine protection from overheating</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvMax_mp</t>
+  </si>
+  <si>
+    <t>Injection mass out of max temperature MAP EngPrt_qOvhtPrvMax_MAP [mg/stroke] mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvHigh_mp</t>
+  </si>
+  <si>
+    <t>Injection mass out of high temperature MAP[mg/stroke] mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvLow_mp</t>
+  </si>
+  <si>
+    <t>Injection mass out of low temperature MAP EngPrt_qOvhtPrvLow_MAP [mg/stroke] mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvTrqTemp_mp</t>
+  </si>
+  <si>
+    <t>Nm/deg</t>
+  </si>
+  <si>
+    <t>injection mass by per  temperature[-] mg/hub/deg C</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvStab_mp</t>
+  </si>
+  <si>
+    <t>Maximum allowed injection mass under stabilized conditions[mg/stroke] mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvDynLtd_mp</t>
+  </si>
+  <si>
+    <t>Dynamical allowed injection mass after limitation[mg/stroke] mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvSum_mp</t>
+  </si>
+  <si>
+    <t>Injection mass with dynamic corrections[mg/stroke] mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvTLim_mp</t>
+  </si>
+  <si>
+    <t>Exhaust gas temperature dependent injection mass protection[mg/stroke] mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvCalc_mp</t>
+  </si>
+  <si>
+    <t>Calculated temperature under stable conditions[deg C] deg C</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvIATCor_mp</t>
+  </si>
+  <si>
+    <t>Temperature correction depending on intake air temperature [deg C] K</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvCor_mp</t>
+  </si>
+  <si>
+    <t>Corrected temperature under stable conditions[deg C] deg C</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvFlt_mp</t>
+  </si>
+  <si>
+    <t>Filtered dynamic temperature[deg C]</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvDiff_mp</t>
+  </si>
+  <si>
+    <t>Difference between allowed (EngPrt_tOvhtPrvAllwMax_C) and filtered (dynamic) temperature(EngPrt_tOvhtPrvFlt_mp) [degC] K</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvDyn_mp</t>
+  </si>
+  <si>
+    <t>Dynamical allowed injection mass[mg/stroke] mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_tAirDes_mp</t>
+  </si>
+  <si>
+    <t>Intake air temperature</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvOT_mp</t>
+  </si>
+  <si>
+    <t>Oil temperature dependent prevention factor</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvCT_mp</t>
+  </si>
+  <si>
+    <t>Coolant temperature dependent prevention factor</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvFT_mp</t>
+  </si>
+  <si>
+    <t>Fuel temperature dependent prevention factor</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvIAT_mp</t>
+  </si>
+  <si>
+    <t>Intake air temperature dependent prevention factor</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrv_mp</t>
+  </si>
+  <si>
+    <t>minimum prevention factor calculated from temperature curves</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvNRng_mp</t>
+  </si>
+  <si>
+    <t>Engine speed dependent injection mass protection</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvVRng_mp</t>
+  </si>
+  <si>
+    <t>Vehicle speed dependent injection mass protection mghub</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvMax_MAP</t>
+  </si>
+  <si>
+    <t>[16 16]</t>
+  </si>
+  <si>
+    <t>[300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300;300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300]</t>
+  </si>
+  <si>
+    <t>Injection mass at maximum temperature</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvMax_MAPX</t>
+  </si>
+  <si>
+    <t>[800 900 1000 1100 1200 1300 1400 1500 1600 1700 1800 2000 2200 2400 2600 2800]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvMax_MAPY</t>
+  </si>
+  <si>
+    <t>[700 800 900 1000 1100 1200 1300 1400 1500 1600 1800 2000 2200 2400 2600 2800]</t>
+  </si>
+  <si>
+    <t>AFS_mAirPerCylFlt</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvHigh_MAP</t>
+  </si>
+  <si>
+    <t>Injection mass at high temperature</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvHigh_MAPX</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvHigh_MAPY</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvLow_MAP</t>
+  </si>
+  <si>
+    <t>[280 272 264 256 248 240 232 224 216 208 200 184 168 152 131.6 129.6;300.96 292.72 284.56 276.32 268.16 260 251.76 243.6 235.44 227.2 219.04 202.64 186.24 169.92 144.8 136;321.92 313.52 305.12 296.72 288.4 280 271.6 263.2 254.88 246.48 238.08 221.36 204.56 187.84 144 144;342.8 334.24 325.68 317.12 308.56 300 291.44 282.8 274.24 265.68 257.12 240 222.8 205.68 168 160;363.84 355.04 346.32 337.52 328.72 320 311.2 302.48 293.68 284.96 276.16 258.64 241.12 223.6 188 180;384.8 375.84 366.88 357.92 348.96 340 331.04 322.08 313.12 304.24 295.28 277.36 259.44 241.52 212.8 208.8;405.68 396.56 387.44 378.24 369.12 360 350.88 341.68 332.56 323.44 314.24 296 277.68 259.44 228.8 222.8;426.72 417.36 408 398.72 389.36 380 370.72 361.36 352 342.72 333.36 314.72 296 277.36 244.8 237.2;447.6 438.08 428.56 419.04 409.52 400 390.48 380.96 371.44 361.92 352.4 333.36 314.24 295.2 260.4 249.6;468.56 458.88 449.12 439.44 429.76 420 410.32 400.56 390.88 381.12 371.44 352 332.56 313.12 278.8 268.8;510.48 500.399999999996 490.32 480.24 470.08 460 449.92 439.839999999996 429.76 419.6 409.52 389.36 369.12 348.96 336.8 324;552.399999999996 541.919999999996 531.44 520.96 510.48 500 489.52 479.04 468.56 458.08 447.6 426.64 405.76 384.8 372 363.6;594.32 583.44 572.559999999996 561.76 550.88 540 529.12 518.32 507.44 496.56 485.76 464 442.32 420.56 405.2 396;636.159999999996 624.96 613.679999999996 602.48 591.279999999996 580 568.799999999996 557.52 546.32 535.039999999996 523.84 501.36 478.88 456.399999999996 422 412.399999999996;678.08 666.48 654.88 643.279999999996 631.6 620 608.399999999996 596.799999999996 585.12 573.52 561.919999999996 538.64 515.44 492.16 459.2 448.8;720 708 696 684 672 660 648 636 624 612 600 576 552 528 495.2 484.8]</t>
+  </si>
+  <si>
+    <t>Injection mass at low temperature</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvLow_MAPX</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvLow_MAPY</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvHighMapRef_C</t>
+  </si>
+  <si>
+    <t>Reference temperature for high injection mass MAP EngPrt_qOvhtPrvHigh_MAP</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvLowMapRef_C</t>
+  </si>
+  <si>
+    <t>Reference temperature for low injection mass MAP EngPrt_qOvhtPrvLow_MAP</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvAllwMax_C</t>
+  </si>
+  <si>
+    <t>maximum allowed temperature</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvDynLimMin_C</t>
+  </si>
+  <si>
+    <t>Minimum limitation of dynamic injection mass</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvDynLimMax_C</t>
+  </si>
+  <si>
+    <t>Maximum limitation of dynamic injection mass</t>
+  </si>
+  <si>
+    <t>EngPrt_swtOvhtPrvOn_C</t>
+  </si>
+  <si>
+    <t>Switch to enable overheat temperature prevention (1 = enable )</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvIATCor_C</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvMinCalc_C</t>
+  </si>
+  <si>
+    <t>Lowest calculated temperature after correction</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvDown_C</t>
+  </si>
+  <si>
+    <t>Time constant for lowpass filter, decreasing temperature</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvUp_C</t>
+  </si>
+  <si>
+    <t>Time constant for lowpass filter, increasing temperature</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvIATRef_CUR</t>
+  </si>
+  <si>
+    <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+  </si>
+  <si>
+    <t>Curve for intake air temperature dependent correction of calculated stabilized</t>
+  </si>
+  <si>
+    <t>EngPrt_tOvhtPrvIATRef_CURX</t>
+  </si>
+  <si>
+    <t>[600 700 800 900 1000 1100 1200 1300 1400 1500 1600 1700 1800 1900 2000 2100 2200 2300 2400 2500 2600 2700 2800 2900 3000]</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvAdd_CUR</t>
+  </si>
+  <si>
+    <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvAdd_CURX</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvAdd_MAP</t>
+  </si>
+  <si>
+    <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3;9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9;18 18 18 18 18 18 18 18 18 18 18 18 18 18 18 18;36 36 36 36 36 36 36 36 36 36 36 36 36 36 36 36;42 42 42 42 42 42 42 42 42 42 42 42 42 42 42 42;45 45 45 45 45 45 45 45 45 45 45 45 45 45 45 45;49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5 49.5;54 54 54 54 54 54 54 54 54 54 54 54 54 54 54 54;54 54 54 54 54 54 54 54 54 54 54 54 54 54 54 54;54 54 54 54 54 54 54 54 54 54 54 54 54 54 54 54;54 54 54 54 54 54 54 54 54 54 54 54 54 54 54 54;54 54 54 54 54 54 54 54 54 54 54 54 54 54 54 54;54 54 54 54 54 54 54 54 54 54 54 54 54 54 54 54;54 54 54 54 54 54 54 54 54 54 54 54 54 54 54 54;54 54 54 54 54 54 54 54 54 54 54 54 54 54 54 54]</t>
+  </si>
+  <si>
+    <t>Dynamic calculated injection mass (MAP strategy)</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvAdd_MAPX</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvAdd_MAPY</t>
+  </si>
+  <si>
+    <t>[-273.15 -253.15 -223.15 -173.15 -123.15 -73.15 -23.15 26.85 76.85 126.85 176.85 226.85 276.85 326.85 376.85 426.85]</t>
+  </si>
+  <si>
+    <t>EngPrt_swtOvhtPrvDyn_C</t>
+  </si>
+  <si>
+    <t>Switch for choosing the dynamic correction behavour (0 = MAP; 1=facQntTemp)</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvOT_CUR</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvOT_CURX</t>
+  </si>
+  <si>
+    <t>[-40 -30 -20 -10 0 10 20 30 40 50 60 70 80 90 100 110 120 130 140 150 160 165 170 175 180]</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvCT_CUR</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvCT_CURX</t>
+  </si>
+  <si>
+    <t>[-40 -30 -20 -10 0 10 20 30 40 50 60 70 80 90 100 105 110 115 120 125 130 135 140 145 150]</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvFT_CUR</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvFT_CURX</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvIAT_CUR</t>
+  </si>
+  <si>
+    <t>EngPrt_facOvhtPrvIAT_CURX</t>
+  </si>
+  <si>
+    <t>AirSys_tFld</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvNRng_MAP</t>
+  </si>
+  <si>
+    <t>[70 70 70 70 70 70 70 70 70 70 70 70 70 70 70 70;70 70 70 70 70 70 70 70 70 70 70 70 70 70 70 70;110 110 110 110 110 70 70 70 70 70 70 70 70 70 70 70;166 166 154 142 142 110 110 70 70 70 70 70 70 70 70 70;182 182 162 150 150 138 138 138 130 110 110 110 110 110 95 85;182 182 182 182 178 170 170 170 170 150 150 130 130 110 110 95;194 194 194 194 190 190 190 194 202 218 210 222 210 110 110 100;194 194 194 206 214 222 222 214 222 226 218 222 210 190 182 110;214 206 214 219.2 222 234.4 235.2 232 232.4 227.2 226.4 231.2 235.2 190 182 116;230 230 230 230 234.4 234.4 235.2 232 232.4 235.2 234.4 239.2 238 234 182 116;250 230 230 235.6 236 237.2 239.2 239.6 244 242 264.4 261.2 257.2 253.2 188.4 120;260 250 240 240 236.4 236.4 237.2 238 238.4 237.2 232.4 225.2 225.2 219.2 212 204.8;280 280 280 280 288 288 288 304 296 268 268 268 268 268 280 280;280 280 280 280 280 280 280 280 280 280 280 280 280 280 280 280;280 280 280 280 280 280 280 280 280 280 280 280 280 280 280 280;280 280 280 280 280 280 280 280 280 280 280 280 280 280 280 280]</t>
+  </si>
+  <si>
+    <t>Map for Engine protection</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvNRng_MAPX</t>
+  </si>
+  <si>
+    <t>[800 1000 1200 1400 1600 1800 2000 2200 2400 2600 2800 3000 3100 3200 3400 3520]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvNRng_MAPY</t>
+  </si>
+  <si>
+    <t>[0 0.1 0.2 0.3 0.4 0.5 0.6 0.7 0.8 0.9 1 1.1 1.2 1.3 1.4 1.5]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvVRng_MAP</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvVRng_MAPX</t>
+  </si>
+  <si>
+    <t>[0 0.06 0.12 0.18 0.24 0.28 0.32 0.36 0.4 0.45 0.5 0.6 0.7 0.8 0.9 1]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqOvhtPrvVRng_MAPY</t>
+  </si>
+  <si>
+    <t>[0 10 20 30 40 50 60 70 80 90 100 110 120 130 140 150]</t>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>Torq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjMass</t>
+  </si>
+  <si>
+    <t>Mass_mg</t>
+  </si>
+  <si>
+    <t>Temp_C</t>
+  </si>
+  <si>
+    <t>Temp_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effcy</t>
+  </si>
+  <si>
+    <t>Fac_10</t>
+  </si>
+  <si>
+    <t>Mass_mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fac_10 for correction of calculated stabilized temperature</t>
+  </si>
+  <si>
+    <t>Curve for calculated injection mass Fac_10 (facQntTemp statergy)</t>
+  </si>
+  <si>
+    <t>Curve for oil temperature dependent limitation Fac_10</t>
+  </si>
+  <si>
+    <t>Curve for coolant temperature dependent limitation Fac_10</t>
+  </si>
+  <si>
+    <t>Curve for fuel temperature dependent limitation Fac_10</t>
+  </si>
+  <si>
+    <t>Overheat protection curve intake air temperature in Fac_10</t>
+  </si>
+  <si>
+    <t>Fac100</t>
+  </si>
+  <si>
+    <t>V_kmph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 25]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +1056,341 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>16383</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C4" s="5">
+        <v>319</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C7" s="5">
+        <v>150</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>250</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C11" s="5">
+        <v>200</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C12" s="5">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C13" s="5">
+        <v>200</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C14" s="5">
+        <v>200</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +1444,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1522,563 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C10" s="5">
+        <v>200</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C11" s="5">
+        <v>200</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C12" s="5">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C13" s="5">
+        <v>200</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C14" s="5">
+        <v>200</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C16" s="5">
+        <v>200</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -614,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,65 +2130,1023 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-16384</v>
+      </c>
+      <c r="C4" s="5">
+        <v>16383.5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-16384</v>
+      </c>
+      <c r="C7" s="5">
+        <v>16383.5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-16384</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16383.5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>700</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>600</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>620</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="6"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="6"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="6"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="6"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>200</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>50</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6">
+        <v>50</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="5">
+        <v>20</v>
+      </c>
+      <c r="C26" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C29" s="5">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C31" s="5">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C33" s="5">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C41" s="5">
+        <v>10</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>255</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -728,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -762,5 +3193,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>